--- a/Definition/Design/HLD/WBS_Dictionary.xlsx
+++ b/Definition/Design/HLD/WBS_Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mai Ashraf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/877c10de5faafcf8/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56056BB3-B17E-49B7-80ED-FC34CA9DA77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{464A2674-7838-4FC8-AA2E-05A20A310824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -313,10 +313,10 @@
     <t>1.1.7.1</t>
   </si>
   <si>
-    <t>Requirements gathering</t>
-  </si>
-  <si>
     <t>1.2.1</t>
+  </si>
+  <si>
+    <t>SRS</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,12 +460,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +529,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,19 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -928,9 +909,9 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,99 +1038,101 @@
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="24" t="s">
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="26">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27">
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
         <v>44869</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24" t="s">
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="26">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
         <v>44838</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="16">
         <v>44869</v>
       </c>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="28" t="s">
+      <c r="D10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="26">
-        <v>1</v>
-      </c>
-      <c r="G11" s="27">
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
         <v>44899</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -1223,77 +1206,77 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="14">
         <v>3</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="26">
-        <v>1</v>
-      </c>
-      <c r="G15" s="27">
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
         <v>44869</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="16">
         <v>44899</v>
       </c>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="14">
         <v>4</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="26">
-        <v>1</v>
-      </c>
-      <c r="G16" s="27">
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16">
         <v>44869</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="16">
         <v>44869</v>
       </c>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="2:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="26">
-        <v>1</v>
-      </c>
-      <c r="G17" s="27">
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
         <v>44838</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="16">
         <v>44838</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -1319,29 +1302,29 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:9" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+    <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="14">
         <v>7</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="26">
-        <v>1</v>
-      </c>
-      <c r="G19" s="27">
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
         <v>44869</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="16">
         <v>44869</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
@@ -1368,30 +1351,32 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+      <c r="B21" s="3">
         <v>1.2</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
         <v>44838</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="14"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>66</v>
@@ -1414,28 +1399,28 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+      <c r="B23" s="3">
         <v>1.3</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
         <v>44899</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="5">
         <v>44899</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8">

--- a/Definition/Design/HLD/WBS_Dictionary.xlsx
+++ b/Definition/Design/HLD/WBS_Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/877c10de5faafcf8/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA workshop\Encyclopedia\Definition\Design\HLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{464A2674-7838-4FC8-AA2E-05A20A310824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516ABD91-C479-49A3-BF32-C6F755A94701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -55,15 +55,9 @@
     <t>2.1.1</t>
   </si>
   <si>
-    <t>3.1.1</t>
-  </si>
-  <si>
     <t>3.2.1</t>
   </si>
   <si>
-    <t>3.3.1</t>
-  </si>
-  <si>
     <t>WORK BREAKDOWN STRUCTURE DICTIONARY</t>
   </si>
   <si>
@@ -196,15 +190,9 @@
     <t xml:space="preserve">Experience-Based Testing </t>
   </si>
   <si>
-    <t>3.1.2</t>
-  </si>
-  <si>
     <t>3.2.2</t>
   </si>
   <si>
-    <t>3.5.1</t>
-  </si>
-  <si>
     <t>Mointoring and Control</t>
   </si>
   <si>
@@ -232,12 +220,6 @@
     <t>(3.3.1- 3.3.2)</t>
   </si>
   <si>
-    <t>3.3.2</t>
-  </si>
-  <si>
-    <t>14/4/2022</t>
-  </si>
-  <si>
     <t>DATE OF COMPLETION</t>
   </si>
   <si>
@@ -317,6 +299,27 @@
   </si>
   <si>
     <t>SRS</t>
+  </si>
+  <si>
+    <t>22/4/2022</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
   </si>
 </sst>
 </file>
@@ -909,9 +912,9 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +934,7 @@
     <row r="1" spans="1:9" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="7"/>
     </row>
@@ -941,32 +944,32 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="22" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,28 +977,28 @@
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1003,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1019,13 +1022,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
@@ -1034,7 +1037,7 @@
         <v>44838</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I7" s="14"/>
     </row>
@@ -1043,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -1058,20 +1061,20 @@
         <v>44869</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -1079,8 +1082,8 @@
       <c r="G9" s="16">
         <v>44838</v>
       </c>
-      <c r="H9" s="16">
-        <v>44869</v>
+      <c r="H9" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="I9" s="13"/>
     </row>
@@ -1089,39 +1092,39 @@
         <v>2</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -1130,22 +1133,22 @@
         <v>44899</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1154,22 +1157,22 @@
         <v>44869</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1178,22 +1181,22 @@
         <v>44869</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1202,22 +1205,22 @@
         <v>44869</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="14">
         <v>3</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F15" s="15">
         <v>1</v>
@@ -1225,23 +1228,23 @@
       <c r="G15" s="16">
         <v>44869</v>
       </c>
-      <c r="H15" s="16">
-        <v>44899</v>
+      <c r="H15" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="14">
         <v>4</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
@@ -1249,23 +1252,23 @@
       <c r="G16" s="16">
         <v>44869</v>
       </c>
-      <c r="H16" s="16">
-        <v>44869</v>
+      <c r="H16" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F17" s="15">
         <v>1</v>
@@ -1273,23 +1276,23 @@
       <c r="G17" s="16">
         <v>44838</v>
       </c>
-      <c r="H17" s="16">
-        <v>44838</v>
+      <c r="H17" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1297,23 +1300,23 @@
       <c r="G18" s="5">
         <v>44838</v>
       </c>
-      <c r="H18" s="5">
-        <v>44838</v>
+      <c r="H18" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="14">
         <v>7</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
@@ -1321,23 +1324,23 @@
       <c r="G19" s="16">
         <v>44869</v>
       </c>
-      <c r="H19" s="16">
-        <v>44869</v>
+      <c r="H19" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="3">
         <v>2.1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1345,8 +1348,8 @@
       <c r="G20" s="5">
         <v>44869</v>
       </c>
-      <c r="H20" s="5">
-        <v>44869</v>
+      <c r="H20" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -1355,13 +1358,13 @@
         <v>1.2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1370,22 +1373,22 @@
         <v>44838</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3">
         <v>1.2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1393,8 +1396,8 @@
       <c r="G22" s="5">
         <v>44808</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>77</v>
+      <c r="H22" s="5">
+        <v>44899</v>
       </c>
       <c r="I22" s="3"/>
     </row>
@@ -1403,13 +1406,13 @@
         <v>1.3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1417,17 +1420,17 @@
       <c r="G23" s="5">
         <v>44899</v>
       </c>
-      <c r="H23" s="5">
-        <v>44899</v>
+      <c r="H23" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1441,16 +1444,16 @@
     </row>
     <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F25" s="15">
         <v>0</v>
@@ -1461,16 +1464,16 @@
     </row>
     <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -1481,16 +1484,16 @@
     </row>
     <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -1501,16 +1504,16 @@
     </row>
     <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="14">
         <v>3.1</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F28" s="15">
         <v>0</v>
@@ -1521,16 +1524,16 @@
     </row>
     <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -1541,16 +1544,16 @@
     </row>
     <row r="30" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -1561,14 +1564,14 @@
     </row>
     <row r="31" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F31" s="15">
         <v>0</v>
@@ -1579,16 +1582,16 @@
     </row>
     <row r="32" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -1599,16 +1602,16 @@
     </row>
     <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -1619,16 +1622,16 @@
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="14">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="14">
         <v>3.3</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F34" s="15">
         <v>0</v>
@@ -1639,16 +1642,16 @@
     </row>
     <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="14">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F35" s="15">
         <v>0</v>
@@ -1659,16 +1662,16 @@
     </row>
     <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -1679,10 +1682,10 @@
     </row>
     <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -1696,16 +1699,16 @@
     </row>
     <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
-        <v>4.0999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D38" s="14">
         <v>2.1</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F38" s="15">
         <v>0</v>
@@ -1716,16 +1719,16 @@
     </row>
     <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="14">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F39" s="15">
         <v>0</v>
@@ -1736,10 +1739,10 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -1753,16 +1756,16 @@
     </row>
     <row r="41" spans="2:9" s="6" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D41" s="14">
         <v>3.5</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>

--- a/Definition/Design/HLD/WBS_Dictionary.xlsx
+++ b/Definition/Design/HLD/WBS_Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA workshop\Encyclopedia\Definition\Design\HLD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (3)\ITI\Technical\QA\Workshop\Encyclopedia\Definition\Design\HLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516ABD91-C479-49A3-BF32-C6F755A94701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD957B-305D-49EA-9F88-C36950237731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -55,9 +55,6 @@
     <t>2.1.1</t>
   </si>
   <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
     <t>WORK BREAKDOWN STRUCTURE DICTIONARY</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Change Management Plan</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
     <t>ITI</t>
   </si>
   <si>
@@ -151,75 +145,21 @@
     <t>Risk Log</t>
   </si>
   <si>
-    <t>Implementation and Execurion</t>
-  </si>
-  <si>
-    <t>Prototype</t>
-  </si>
-  <si>
-    <t>Solution Design</t>
-  </si>
-  <si>
-    <t>Layout Design</t>
-  </si>
-  <si>
     <t>Design</t>
   </si>
   <si>
-    <t>Front-End Design</t>
-  </si>
-  <si>
-    <t>Back-End Design</t>
-  </si>
-  <si>
     <t xml:space="preserve">Development </t>
   </si>
   <si>
-    <t>Front-End Development</t>
-  </si>
-  <si>
-    <t>Back-End Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content &amp; SEO </t>
-  </si>
-  <si>
     <t xml:space="preserve">Testing </t>
   </si>
   <si>
-    <t xml:space="preserve">Experience-Based Testing </t>
-  </si>
-  <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
-    <t>Mointoring and Control</t>
-  </si>
-  <si>
-    <t>Traceability Matrix</t>
-  </si>
-  <si>
-    <t>Version Control</t>
-  </si>
-  <si>
-    <t>Closing</t>
-  </si>
-  <si>
-    <t>Deployment Phase</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>(2.1.1 - 2.1.8)</t>
   </si>
   <si>
-    <t>(3.1- 3.4)</t>
-  </si>
-  <si>
-    <t>(3.3.1- 3.3.2)</t>
-  </si>
-  <si>
     <t>DATE OF COMPLETION</t>
   </si>
   <si>
@@ -259,9 +199,6 @@
     <t>15/4/2022</t>
   </si>
   <si>
-    <t>Web application Encyclopedia</t>
-  </si>
-  <si>
     <t>Frameworks &amp; Tools</t>
   </si>
   <si>
@@ -316,17 +253,95 @@
     <t>2.3.1</t>
   </si>
   <si>
-    <t>2.3.2</t>
-  </si>
-  <si>
-    <t>2.5.1</t>
+    <t>Wireframe Design</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>Architecture design</t>
+  </si>
+  <si>
+    <t>Back-end</t>
+  </si>
+  <si>
+    <t>Front-End</t>
+  </si>
+  <si>
+    <t>Learning Hub Web Application</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register User </t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>Unregistered User</t>
+  </si>
+  <si>
+    <t>20/4/2022</t>
+  </si>
+  <si>
+    <t>Usecases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERD </t>
+  </si>
+  <si>
+    <t>Radwa,Yara,Fatma</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>High Level Sequence diagrams</t>
+  </si>
+  <si>
+    <t>Fatma, Yara</t>
+  </si>
+  <si>
+    <t>Low Level Sequence Diagrams</t>
+  </si>
+  <si>
+    <t>27/4/2022</t>
+  </si>
+  <si>
+    <t>24/4/2022</t>
+  </si>
+  <si>
+    <t>25/4/2022</t>
+  </si>
+  <si>
+    <t>23/4/2022</t>
+  </si>
+  <si>
+    <t>28/4/2022</t>
+  </si>
+  <si>
+    <t>29/4/2022</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Integration testing</t>
+  </si>
+  <si>
+    <t>System testing</t>
+  </si>
+  <si>
+    <t>Acceptance testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,6 +442,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -532,7 +553,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -598,6 +619,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -909,12 +933,12 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +958,7 @@
     <row r="1" spans="1:9" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="7"/>
     </row>
@@ -944,32 +968,32 @@
         <v>0</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="21" t="s">
-        <v>20</v>
+      <c r="H3" s="21">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -977,28 +1001,28 @@
     </row>
     <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>14</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1022,13 +1046,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
@@ -1037,7 +1061,7 @@
         <v>44838</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I7" s="14"/>
     </row>
@@ -1046,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -1061,20 +1085,20 @@
         <v>44869</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -1083,7 +1107,7 @@
         <v>44838</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I9" s="13"/>
     </row>
@@ -1092,39 +1116,39 @@
         <v>2</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -1133,22 +1157,22 @@
         <v>44899</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1157,22 +1181,22 @@
         <v>44869</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1181,22 +1205,22 @@
         <v>44869</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1205,22 +1229,22 @@
         <v>44869</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="14">
         <v>3</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F15" s="15">
         <v>1</v>
@@ -1229,22 +1253,22 @@
         <v>44869</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="14">
         <v>4</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
@@ -1253,22 +1277,22 @@
         <v>44869</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F17" s="15">
         <v>1</v>
@@ -1277,22 +1301,22 @@
         <v>44838</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1301,22 +1325,22 @@
         <v>44838</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="14">
         <v>7</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
@@ -1325,22 +1349,22 @@
         <v>44869</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3">
         <v>2.1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1349,7 +1373,7 @@
         <v>44869</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -1358,13 +1382,13 @@
         <v>1.2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1373,22 +1397,22 @@
         <v>44838</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3">
         <v>1.2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1406,13 +1430,13 @@
         <v>1.3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1421,7 +1445,7 @@
         <v>44899</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -1430,36 +1454,40 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="10">
-        <f>AVERAGE(F25:F36)</f>
-        <v>0</v>
+        <f>AVERAGE(F25:F34)</f>
+        <v>1</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="13">
+      <c r="B25" s="24">
         <v>2.1</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>3</v>
+        <v>70</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1.2</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1467,305 +1495,329 @@
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1.2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="14">
-        <v>3.1</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="3"/>
+      <c r="C29" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="14"/>
+      <c r="B31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+        <v>87</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>3</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="10">
+        <f>AVERAGE(F36:F41)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="15">
         <v>0</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="4">
         <v>0</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="14">
-        <v>2.4</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="15">
-        <v>0</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="14">
-        <v>2.5</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
-        <v>3</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10">
-        <f>AVERAGE(F38:F41)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="9"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="14">
-        <v>2.1</v>
+        <v>74</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F38" s="15">
         <v>0</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="14"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="14">
-        <v>3.2</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="15">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="4">
         <v>0</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <v>4</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="10">
-        <f>AVERAGE(F41:F43)</f>
-        <v>0</v>
+        <f>AVERAGE(F41:F45)</f>
+        <v>0.25</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="2:9" s="6" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="14">
         <v>4.0999999999999996</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="14">
-        <v>3.5</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
@@ -1773,6 +1825,60 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="14"/>
+    </row>
+    <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="14"/>
+    </row>
+    <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="14"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="15">
+        <v>1</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
